--- a/data_pulling/team_game_logs_1819/team_game_log_DET.xlsx
+++ b/data_pulling/team_game_logs_1819/team_game_log_DET.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="116">
   <si>
     <t>game.awayTeamAbbreviation</t>
   </si>
@@ -274,6 +274,9 @@
     <t>OKL</t>
   </si>
   <si>
+    <t>NOP</t>
+  </si>
+  <si>
     <t>ORL</t>
   </si>
   <si>
@@ -353,6 +356,12 @@
   </si>
   <si>
     <t>2018-12-08T00:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2018-12-09T20:30:00.000Z</t>
+  </si>
+  <si>
+    <t>2018-12-11T00:00:00.000Z</t>
   </si>
 </sst>
 </file>
@@ -710,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BV24"/>
+  <dimension ref="A1:BV26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -951,7 +960,7 @@
         <v>47573</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -1175,7 +1184,7 @@
         <v>47600</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -1399,7 +1408,7 @@
         <v>47618</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -1623,7 +1632,7 @@
         <v>47632</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -1847,7 +1856,7 @@
         <v>47643</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -2071,7 +2080,7 @@
         <v>47668</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -2295,7 +2304,7 @@
         <v>47673</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -2519,7 +2528,7 @@
         <v>47694</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -2743,7 +2752,7 @@
         <v>47709</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -2961,13 +2970,13 @@
         <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D11">
         <v>47723</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -3185,13 +3194,13 @@
         <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D12">
         <v>47738</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -3415,7 +3424,7 @@
         <v>47753</v>
       </c>
       <c r="E13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -3633,13 +3642,13 @@
         <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D14">
         <v>47775</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -3863,7 +3872,7 @@
         <v>47809</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F15">
         <v>4</v>
@@ -4087,7 +4096,7 @@
         <v>47827</v>
       </c>
       <c r="E16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -4311,7 +4320,7 @@
         <v>47836</v>
       </c>
       <c r="E17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -4535,7 +4544,7 @@
         <v>47856</v>
       </c>
       <c r="E18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -4759,7 +4768,7 @@
         <v>47870</v>
       </c>
       <c r="E19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F19">
         <v>7</v>
@@ -4983,7 +4992,7 @@
         <v>47890</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F20">
         <v>5</v>
@@ -5207,7 +5216,7 @@
         <v>47900</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -5431,7 +5440,7 @@
         <v>47912</v>
       </c>
       <c r="E22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F22">
         <v>3</v>
@@ -5649,13 +5658,13 @@
         <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D23">
         <v>47930</v>
       </c>
       <c r="E23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -5879,7 +5888,7 @@
         <v>47938</v>
       </c>
       <c r="E24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F24">
         <v>3</v>
@@ -6002,10 +6011,10 @@
         <v>24</v>
       </c>
       <c r="AT24">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AU24">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AV24">
         <v>24</v>
@@ -6023,16 +6032,16 @@
         <v>2</v>
       </c>
       <c r="BA24">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BB24">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="BC24">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="BD24">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BE24">
         <v>-6</v>
@@ -6086,6 +6095,454 @@
         <v>74</v>
       </c>
       <c r="BV24">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:74">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25">
+        <v>47956</v>
+      </c>
+      <c r="E25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>8</v>
+      </c>
+      <c r="H25">
+        <v>8</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>116</v>
+      </c>
+      <c r="K25">
+        <v>116</v>
+      </c>
+      <c r="L25">
+        <v>8</v>
+      </c>
+      <c r="M25">
+        <v>8</v>
+      </c>
+      <c r="N25">
+        <v>10</v>
+      </c>
+      <c r="O25">
+        <v>10</v>
+      </c>
+      <c r="P25">
+        <v>69</v>
+      </c>
+      <c r="Q25">
+        <v>69</v>
+      </c>
+      <c r="R25">
+        <v>34</v>
+      </c>
+      <c r="S25">
+        <v>34</v>
+      </c>
+      <c r="T25">
+        <v>49.3</v>
+      </c>
+      <c r="U25">
+        <v>29</v>
+      </c>
+      <c r="V25">
+        <v>29</v>
+      </c>
+      <c r="W25">
+        <v>9</v>
+      </c>
+      <c r="X25">
+        <v>9</v>
+      </c>
+      <c r="Y25">
+        <v>31</v>
+      </c>
+      <c r="Z25">
+        <v>98</v>
+      </c>
+      <c r="AA25">
+        <v>98</v>
+      </c>
+      <c r="AB25">
+        <v>43</v>
+      </c>
+      <c r="AC25">
+        <v>43</v>
+      </c>
+      <c r="AD25">
+        <v>43.9</v>
+      </c>
+      <c r="AE25">
+        <v>24</v>
+      </c>
+      <c r="AF25">
+        <v>24</v>
+      </c>
+      <c r="AG25">
+        <v>13</v>
+      </c>
+      <c r="AH25">
+        <v>13</v>
+      </c>
+      <c r="AI25">
+        <v>54.2</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>22</v>
+      </c>
+      <c r="AT25">
+        <v>19</v>
+      </c>
+      <c r="AU25">
+        <v>19</v>
+      </c>
+      <c r="AV25">
+        <v>22</v>
+      </c>
+      <c r="AW25">
+        <v>22</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>22</v>
+      </c>
+      <c r="BB25">
+        <v>19</v>
+      </c>
+      <c r="BC25">
+        <v>19</v>
+      </c>
+      <c r="BD25">
+        <v>22</v>
+      </c>
+      <c r="BE25">
+        <v>-8</v>
+      </c>
+      <c r="BF25">
+        <v>-8</v>
+      </c>
+      <c r="BG25">
+        <v>28</v>
+      </c>
+      <c r="BH25">
+        <v>28</v>
+      </c>
+      <c r="BI25">
+        <v>108</v>
+      </c>
+      <c r="BJ25">
+        <v>108</v>
+      </c>
+      <c r="BK25">
+        <v>30</v>
+      </c>
+      <c r="BL25">
+        <v>30</v>
+      </c>
+      <c r="BM25">
+        <v>17</v>
+      </c>
+      <c r="BN25">
+        <v>17</v>
+      </c>
+      <c r="BO25">
+        <v>47</v>
+      </c>
+      <c r="BP25">
+        <v>47</v>
+      </c>
+      <c r="BQ25">
+        <v>0</v>
+      </c>
+      <c r="BR25">
+        <v>1</v>
+      </c>
+      <c r="BS25">
+        <v>0</v>
+      </c>
+      <c r="BT25">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:74">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26">
+        <v>47961</v>
+      </c>
+      <c r="E26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>116</v>
+      </c>
+      <c r="K26">
+        <v>116</v>
+      </c>
+      <c r="L26">
+        <v>5</v>
+      </c>
+      <c r="M26">
+        <v>5</v>
+      </c>
+      <c r="N26">
+        <v>15</v>
+      </c>
+      <c r="O26">
+        <v>15</v>
+      </c>
+      <c r="P26">
+        <v>63</v>
+      </c>
+      <c r="Q26">
+        <v>63</v>
+      </c>
+      <c r="R26">
+        <v>32</v>
+      </c>
+      <c r="S26">
+        <v>32</v>
+      </c>
+      <c r="T26">
+        <v>50.8</v>
+      </c>
+      <c r="U26">
+        <v>21</v>
+      </c>
+      <c r="V26">
+        <v>21</v>
+      </c>
+      <c r="W26">
+        <v>9</v>
+      </c>
+      <c r="X26">
+        <v>9</v>
+      </c>
+      <c r="Y26">
+        <v>42.9</v>
+      </c>
+      <c r="Z26">
+        <v>84</v>
+      </c>
+      <c r="AA26">
+        <v>84</v>
+      </c>
+      <c r="AB26">
+        <v>41</v>
+      </c>
+      <c r="AC26">
+        <v>41</v>
+      </c>
+      <c r="AD26">
+        <v>48.8</v>
+      </c>
+      <c r="AE26">
+        <v>21</v>
+      </c>
+      <c r="AF26">
+        <v>21</v>
+      </c>
+      <c r="AG26">
+        <v>11</v>
+      </c>
+      <c r="AH26">
+        <v>11</v>
+      </c>
+      <c r="AI26">
+        <v>52.4</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>24</v>
+      </c>
+      <c r="AT26">
+        <v>19</v>
+      </c>
+      <c r="AU26">
+        <v>19</v>
+      </c>
+      <c r="AV26">
+        <v>24</v>
+      </c>
+      <c r="AW26">
+        <v>24</v>
+      </c>
+      <c r="AX26">
+        <v>1</v>
+      </c>
+      <c r="AY26">
+        <v>1</v>
+      </c>
+      <c r="AZ26">
+        <v>1</v>
+      </c>
+      <c r="BA26">
+        <v>26</v>
+      </c>
+      <c r="BB26">
+        <v>19</v>
+      </c>
+      <c r="BC26">
+        <v>19</v>
+      </c>
+      <c r="BD26">
+        <v>26</v>
+      </c>
+      <c r="BE26">
+        <v>-14</v>
+      </c>
+      <c r="BF26">
+        <v>-14</v>
+      </c>
+      <c r="BG26">
+        <v>23</v>
+      </c>
+      <c r="BH26">
+        <v>23</v>
+      </c>
+      <c r="BI26">
+        <v>102</v>
+      </c>
+      <c r="BJ26">
+        <v>102</v>
+      </c>
+      <c r="BK26">
+        <v>36</v>
+      </c>
+      <c r="BL26">
+        <v>36</v>
+      </c>
+      <c r="BM26">
+        <v>10</v>
+      </c>
+      <c r="BN26">
+        <v>10</v>
+      </c>
+      <c r="BO26">
+        <v>46</v>
+      </c>
+      <c r="BP26">
+        <v>46</v>
+      </c>
+      <c r="BQ26">
+        <v>0</v>
+      </c>
+      <c r="BR26">
+        <v>1</v>
+      </c>
+      <c r="BS26">
+        <v>0</v>
+      </c>
+      <c r="BT26">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV26">
         <v>88</v>
       </c>
     </row>
